--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value458.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value458.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.273029536643842</v>
+        <v>1.187578558921814</v>
       </c>
       <c r="B1">
-        <v>1.794437486521202</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>3.268008779581092</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.925439999343306</v>
+        <v>1.757434844970703</v>
       </c>
       <c r="E1">
-        <v>0.4213076616681952</v>
+        <v>1.121516227722168</v>
       </c>
     </row>
   </sheetData>
